--- a/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T09:43:15+00:00</t>
+    <t>2023-02-27T10:56:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:56:39+00:00</t>
+    <t>2023-02-27T10:57:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:57:29+00:00</t>
+    <t>2023-02-27T11:20:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/update-technical-section-in-index-page/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:20:21+00:00</t>
+    <t>2023-02-27T11:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
